--- a/1_PLANILLA_SIG_División Planificación_2026.xlsx
+++ b/1_PLANILLA_SIG_División Planificación_2026.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,9 +32,17 @@
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="10"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -46,8 +54,13 @@
         <fgColor rgb="001F4E78"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -61,17 +74,35 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3199,6 +3230,65 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="60" customWidth="1" min="11" max="11"/>
+    <col width="60" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
+    <col width="15" customWidth="1" min="24" max="24"/>
+    <col width="15" customWidth="1" min="25" max="25"/>
+    <col width="15" customWidth="1" min="26" max="26"/>
+    <col width="15" customWidth="1" min="27" max="27"/>
+    <col width="15" customWidth="1" min="28" max="28"/>
+    <col width="15" customWidth="1" min="29" max="29"/>
+    <col width="15" customWidth="1" min="30" max="30"/>
+    <col width="15" customWidth="1" min="31" max="31"/>
+    <col width="15" customWidth="1" min="32" max="32"/>
+    <col width="15" customWidth="1" min="33" max="33"/>
+    <col width="15" customWidth="1" min="34" max="34"/>
+    <col width="15" customWidth="1" min="35" max="35"/>
+    <col width="15" customWidth="1" min="36" max="36"/>
+    <col width="15" customWidth="1" min="37" max="37"/>
+    <col width="15" customWidth="1" min="38" max="38"/>
+    <col width="15" customWidth="1" min="39" max="39"/>
+    <col width="15" customWidth="1" min="40" max="40"/>
+    <col width="15" customWidth="1" min="41" max="41"/>
+    <col width="15" customWidth="1" min="42" max="42"/>
+    <col width="15" customWidth="1" min="43" max="43"/>
+    <col width="15" customWidth="1" min="44" max="44"/>
+    <col width="15" customWidth="1" min="45" max="45"/>
+    <col width="15" customWidth="1" min="46" max="46"/>
+    <col width="15" customWidth="1" min="47" max="47"/>
+    <col width="15" customWidth="1" min="48" max="48"/>
+    <col width="15" customWidth="1" min="49" max="49"/>
+    <col width="15" customWidth="1" min="50" max="50"/>
+    <col width="15" customWidth="1" min="51" max="51"/>
+    <col width="15" customWidth="1" min="52" max="52"/>
+    <col width="15" customWidth="1" min="53" max="53"/>
+    <col width="25" customWidth="1" min="54" max="54"/>
+    <col width="60" customWidth="1" min="55" max="55"/>
+    <col width="15" customWidth="1" min="56" max="56"/>
+    <col width="60" customWidth="1" min="57" max="57"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -3488,1628 +3578,1740 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>--- CDC ---</t>
         </is>
       </c>
+      <c r="B2" s="3" t="inlineStr"/>
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr"/>
+      <c r="E2" s="3" t="inlineStr"/>
+      <c r="F2" s="3" t="inlineStr"/>
+      <c r="G2" s="3" t="inlineStr"/>
+      <c r="H2" s="3" t="inlineStr"/>
+      <c r="I2" s="3" t="inlineStr"/>
+      <c r="J2" s="3" t="inlineStr"/>
+      <c r="K2" s="3" t="inlineStr"/>
+      <c r="L2" s="3" t="inlineStr"/>
+      <c r="M2" s="3" t="inlineStr"/>
+      <c r="N2" s="3" t="inlineStr"/>
+      <c r="O2" s="3" t="inlineStr"/>
+      <c r="P2" s="3" t="inlineStr"/>
+      <c r="Q2" s="3" t="inlineStr"/>
+      <c r="R2" s="3" t="inlineStr"/>
+      <c r="S2" s="3" t="inlineStr"/>
+      <c r="T2" s="3" t="inlineStr"/>
+      <c r="U2" s="3" t="inlineStr"/>
+      <c r="V2" s="3" t="inlineStr"/>
+      <c r="W2" s="3" t="inlineStr"/>
+      <c r="X2" s="3" t="inlineStr"/>
+      <c r="Y2" s="3" t="inlineStr"/>
+      <c r="Z2" s="3" t="inlineStr"/>
+      <c r="AA2" s="3" t="inlineStr"/>
+      <c r="AB2" s="3" t="inlineStr"/>
+      <c r="AC2" s="3" t="inlineStr"/>
+      <c r="AD2" s="3" t="inlineStr"/>
+      <c r="AE2" s="3" t="inlineStr"/>
+      <c r="AF2" s="3" t="inlineStr"/>
+      <c r="AG2" s="3" t="inlineStr"/>
+      <c r="AH2" s="3" t="inlineStr"/>
+      <c r="AI2" s="3" t="inlineStr"/>
+      <c r="AJ2" s="3" t="inlineStr"/>
+      <c r="AK2" s="3" t="inlineStr"/>
+      <c r="AL2" s="3" t="inlineStr"/>
+      <c r="AM2" s="3" t="inlineStr"/>
+      <c r="AN2" s="3" t="inlineStr"/>
+      <c r="AO2" s="3" t="inlineStr"/>
+      <c r="AP2" s="3" t="inlineStr"/>
+      <c r="AQ2" s="3" t="inlineStr"/>
+      <c r="AR2" s="3" t="inlineStr"/>
+      <c r="AS2" s="3" t="inlineStr"/>
+      <c r="AT2" s="3" t="inlineStr"/>
+      <c r="AU2" s="3" t="inlineStr"/>
+      <c r="AV2" s="3" t="inlineStr"/>
+      <c r="AW2" s="3" t="inlineStr"/>
+      <c r="AX2" s="3" t="inlineStr"/>
+      <c r="AY2" s="3" t="inlineStr"/>
+      <c r="AZ2" s="3" t="inlineStr"/>
+      <c r="BA2" s="3" t="inlineStr"/>
+      <c r="BB2" s="3" t="inlineStr"/>
+      <c r="BC2" s="3" t="inlineStr"/>
+      <c r="BD2" s="3" t="inlineStr"/>
+      <c r="BE2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>5.4.1.61</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1) Eficacia/Proceso
 Porcentaje de hitos cumplidos del Plan Anual de Acción para el mejoramiento del Sistema de Informacón de Gestión Institucional en el año t 
 </t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">5.- Proceso de Apoyo                                                
 5.4.- Planificación y Control de Gestión                         
 5.4.1.- Control de Gestión Institucional                                   </t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>(Sumatoria de hitos cumplidos del Plan Anual de acción para el mejoramiento del Sistema de Información de Gestión Institucional / N° total de hitos cumplidos del Plan de acción para el mejoramiento del Sistema de Información de Gestión Institucional en el año t)*100</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>División Planificación y Desarrollo</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Yuri Alberto Grlica Fernandez</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>Patricia Schubert Urzua</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>Monica Smith Guerrero</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">(Sumatoria de hitos cumplidos del Plan Anual de acción para el mejoramiento del Sistema de Información de Gestión Institucional </t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>N° total de hitos cumplidos del Plan de acción para el mejoramiento del Sistema de Información de Gestión Institucional en el año t)*100</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="inlineStr">
+      <c r="O3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Reportes/Informes 
 -	Plan anual de acción para el mejoramiento del sistema de información de Gestión Institucional.
 -	Medios de verificación de los hitos comprometidos en el plan.  </t>
         </is>
       </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="inlineStr">
+      <c r="BD3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="4" t="inlineStr">
         <is>
           <t>CDC. Div. Planificación y Desarrollo</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>5.4.1.46</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2) Eficacia/Proceso
 Porcentaje de medidas para la igualdad de género del Programa de Trabajo implementadas en el año (CDC)
 </t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">5.- Proceso de Apoyo                                                5.4.- Planificación y Control de Gestión                  
 5.4.1.- Control de Gestión Institucional                                   </t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">(Número  de medidas  para  la igualdad de género del Programa de Trabajo implementadas en  el año t / N° de medidas  para la igualdad de género comprometidas para el año t en el Programa de Trabajo)* 100
 </t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>División Planificación y Desarrollo</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Yuri Alberto Grlica Fernandez</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>Pamela Carrasco Geve</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>Monica Smith Guerrero</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">(Número  de medidas  para  la igualdad de género del Programa de Trabajo implementadas en  el año t  </t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">N° de medidas  para la igualdad de género comprometidas para el año t en el Programa de Trabajo)* 100
 </t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="inlineStr">
+      <c r="O4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="4" t="inlineStr">
         <is>
           <t>Reportes/Informes 
 -	Programa de Trabajo año t.
 -	Medios de verificación definidos para cada medida comprometida</t>
         </is>
       </c>
-      <c r="BD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="inlineStr">
+      <c r="BD4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="4" t="inlineStr">
         <is>
           <t>CDC: Div. Planificación y Desarrollo</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>5.4.2.21</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>5) Eficacia/Proceso
 Porcentaje de hitos cumplidos del plan anual de instalación de una cultura y prácticas de innovación realizadas en el año t.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">5.- Proceso de Apoyo                                                5.4.- Planificación y Control de Gestión                   
 5.4.1.- Control de Gestión Institucional         </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>(Nº de hitos cumplidos del plan anual de instalación de una cultura y prácticas de innovación en el año t / Nº de hitos del plan anual de instalación de una cultura y prácticas de innovación planificados en el año t)*100</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>División Planificación y Desarrollo</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Yuri Alberto Grlica Fernandez</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>Marcela Castillo Darvich</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>Hugo Rojas Dominguez</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>(Nº de hitos cumplidos del plan anual de instalación de una cultura y prácticas de innovación en el año t</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="4" t="inlineStr">
         <is>
           <t>Nº de hitos del plan anual de instalación de una cultura y prácticas de innovación planificados en el año t)*100</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="inlineStr">
+      <c r="O5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="4" t="inlineStr">
         <is>
           <t>Reportes/Informes
 -	Plan anual de instalación de una cultura y prácticas de innovación.
 -	Medios de verificación de las actividades definidas en el plan.</t>
         </is>
       </c>
-      <c r="BD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="inlineStr">
+      <c r="BD5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="4" t="inlineStr">
         <is>
           <t>CDC: Div. Planificación y Desarrollo</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>INDICADOR NUEVO</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">6) Eficacia/Proceso
 Porcentaje de documentos revisados en un plazo máximo de 10 días hábiles en el año t </t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">5.- Proceso de Apoyo                                                5.4.- Planificación y Control de Gestión                   
 5.4.1.- Control de Gestión Institucional         </t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>(Sumatoria de documentos revisados en un plazo máximo de 10 días hábiles en el año t   / Número total de documentos revisados en el año t) * 100</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>División Planificación y Desarrollo</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Yuri Alberto Grlica Fernandez</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>Lorena Espinoza Duran</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>Monica Smith Guerrero</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="4" t="n">
         <v>59.45945945945946</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>(Sumatoria de documentos revisados en un plazo máximo de 10 días hábiles en el año t</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>Número total de documentos revisados en el año t) * 100</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="inlineStr">
+      <c r="O6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="4" t="inlineStr">
         <is>
           <t>Reportes/Informes 
 -	Reporte de documentos revisados.</t>
         </is>
       </c>
-      <c r="BD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE6" t="inlineStr">
+      <c r="BD6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="4" t="inlineStr">
         <is>
           <t>CDC: Div. Planificación y Desarrollo</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>5.1.3.45</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>7) Eficacia/Proceso
 Porcentaje de hitos de control cumplidos de ejecución presupuestaria a nivel de los Subtítulos 22 y 29, dentro de los plazos establecidos.
 (División Planificación y Desarrollo)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 5.- Proceso de Apoyo
 5.1.- Administración y Finanzas
 5.1.3.- Programación y Control Presupuestario</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>(Sumatoria de hitos de control cumplidos de ejecución presupuestaria a nivel de los Subtítulos 22 y 29, dentro de los plazos establecidos / N° total de hitos de control definidos de ejecución presupuestaria a nivel de los Subtítulos 22 y 29) *100</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Subdirección Sistemas de Información y Administración
 Departamento Secretaria General y Transparencia </t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Juan Daza Lizana (S)</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Julio Santistevan Jimenez</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>Manuel Aguila Castillo</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="4" t="n">
         <v>66.66666666666666</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Sumatoria de hitos de control cumplidos de ejecución presupuestaria a nivel de los Subtítulos 22 y 29, dentro de los plazos establecidos</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>N° total de hitos de control definidos de ejecución presupuestaria a nivel de los Subtítulos 22 y 29</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="O7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
+      <c r="R7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="U7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="X7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="4" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AD7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="4" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
+      <c r="AJ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AM7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AP7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="n">
+      <c r="AS7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
+      <c r="AV7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7" s="4" t="n">
         <v>66.66666666666666</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="BC7" t="inlineStr">
+      <c r="BC7" s="4" t="inlineStr">
         <is>
           <t>Reportes/Informes 
 -	Informe de ejecución presupuestaria emitido por el Subdepartamento de Presupuesto del Departamento de Finanzas.</t>
         </is>
       </c>
-      <c r="BD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="inlineStr">
+      <c r="BD7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CDC: Div. Beneficio,Subdirección Clientes, División Informática, Subdirección Sistema de información y Administración, División Planificación y Desarrollo, Departamento Comunicaciones, </t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>INDICADOR NUEVO</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">6) Eficacia/Proceso
 Porcentaje de hitos cumplidos del plan anual de acción para el fortalecimiento de la oficina de gestión de proyectos en el año t </t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">5.- Proceso de Apoyo                                                5.4.- Planificación y Control de Gestión                   
 5.4.1.- Control de Gestión Institucional         </t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>(Sumatoria de hitos cumplidos del plan anual de acción para el fortalecimiento de la oficina de gestión de proyectos en el año t / N° total de hitos del plan de acción para el fortalecimiento de la oficina de gestión de proyectos en el año t) *100</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>División Planificación y Desarrollo</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>Yuri Alberto Grlica Fernandez</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>Maria Pilar Farias Maldonado</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>Monica Smith Guerrero</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" s="4" t="inlineStr">
         <is>
           <t>(Sumatoria de hitos cumplidos del plan anual de acción para el fortalecimiento de la oficina de gestión de proyectos en el año t</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="4" t="inlineStr">
         <is>
           <t>N° total de hitos del plan de acción para el fortalecimiento de la oficina de gestión de proyectos en el año t) *100</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N8" t="n">
-        <v>4</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="inlineStr">
+      <c r="N8" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="4" t="inlineStr">
         <is>
           <t>Reportes/Informes 
 -	Plan para el fortalecimiento de la oficina de gestión de proyectos 
 -	Medios de verificación de las actividades definidas en el plan</t>
         </is>
       </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="inlineStr">
+      <c r="BD8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="4" t="inlineStr">
         <is>
           <t>CDC: Div. Planificación y Desarrollo</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>INDICADOR NUEVO</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>6) Eficacia/Proceso
 Porcentaje de actividades cumplidos del Plan de Monitoreo y Control de Riesgos (PMCR) nuevos, emergentes y materializados en macroprocesos priorizados en año t.</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">5.- Proceso de Apoyo                                                5.4.- Planificación y Control de Gestión                   
 5.4.1.- Control de Gestión Institucional         </t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>(Nº de actividades cumplidos del PMCR nuevos, emergentes y materializados en macroprocesos priorizados en el año t / N° total de actividades programados en el PMCR nuevos, emergentes y materializados en macroprocesos priorizados en el año t) *100</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>División Planificación y Desarrollo</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>Yuri Alberto Grlica Fernandez</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>Margarita Luna Ibarra</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>Monica Smith Guerrero</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" s="4" t="inlineStr">
         <is>
           <t>(Nº de actividades cumplidos del PMCR nuevos, emergentes y materializados en macroprocesos priorizados en el año t</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>N° total de actividades programados en el PMCR nuevos, emergentes y materializados en macroprocesos priorizados en el año t) *100</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" t="inlineStr">
+      <c r="O9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="4" t="inlineStr">
         <is>
           <t>Reportes/Informes
 - Plan de Monitoreo y Control de Riesgos (PMCR) nuevos, emergentes y materializados.
 - Medios de verificación de las actividades definidas en el plan.</t>
         </is>
       </c>
-      <c r="BD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE9" t="inlineStr">
+      <c r="BD9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="4" t="inlineStr">
         <is>
           <t>CDC: Div. Planificación y Desarrollo</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>--- PMG ---</t>
         </is>
       </c>
+      <c r="B10" s="3" t="inlineStr"/>
+      <c r="C10" s="3" t="inlineStr"/>
+      <c r="D10" s="3" t="inlineStr"/>
+      <c r="E10" s="3" t="inlineStr"/>
+      <c r="F10" s="3" t="inlineStr"/>
+      <c r="G10" s="3" t="inlineStr"/>
+      <c r="H10" s="3" t="inlineStr"/>
+      <c r="I10" s="3" t="inlineStr"/>
+      <c r="J10" s="3" t="inlineStr"/>
+      <c r="K10" s="3" t="inlineStr"/>
+      <c r="L10" s="3" t="inlineStr"/>
+      <c r="M10" s="3" t="inlineStr"/>
+      <c r="N10" s="3" t="inlineStr"/>
+      <c r="O10" s="3" t="inlineStr"/>
+      <c r="P10" s="3" t="inlineStr"/>
+      <c r="Q10" s="3" t="inlineStr"/>
+      <c r="R10" s="3" t="inlineStr"/>
+      <c r="S10" s="3" t="inlineStr"/>
+      <c r="T10" s="3" t="inlineStr"/>
+      <c r="U10" s="3" t="inlineStr"/>
+      <c r="V10" s="3" t="inlineStr"/>
+      <c r="W10" s="3" t="inlineStr"/>
+      <c r="X10" s="3" t="inlineStr"/>
+      <c r="Y10" s="3" t="inlineStr"/>
+      <c r="Z10" s="3" t="inlineStr"/>
+      <c r="AA10" s="3" t="inlineStr"/>
+      <c r="AB10" s="3" t="inlineStr"/>
+      <c r="AC10" s="3" t="inlineStr"/>
+      <c r="AD10" s="3" t="inlineStr"/>
+      <c r="AE10" s="3" t="inlineStr"/>
+      <c r="AF10" s="3" t="inlineStr"/>
+      <c r="AG10" s="3" t="inlineStr"/>
+      <c r="AH10" s="3" t="inlineStr"/>
+      <c r="AI10" s="3" t="inlineStr"/>
+      <c r="AJ10" s="3" t="inlineStr"/>
+      <c r="AK10" s="3" t="inlineStr"/>
+      <c r="AL10" s="3" t="inlineStr"/>
+      <c r="AM10" s="3" t="inlineStr"/>
+      <c r="AN10" s="3" t="inlineStr"/>
+      <c r="AO10" s="3" t="inlineStr"/>
+      <c r="AP10" s="3" t="inlineStr"/>
+      <c r="AQ10" s="3" t="inlineStr"/>
+      <c r="AR10" s="3" t="inlineStr"/>
+      <c r="AS10" s="3" t="inlineStr"/>
+      <c r="AT10" s="3" t="inlineStr"/>
+      <c r="AU10" s="3" t="inlineStr"/>
+      <c r="AV10" s="3" t="inlineStr"/>
+      <c r="AW10" s="3" t="inlineStr"/>
+      <c r="AX10" s="3" t="inlineStr"/>
+      <c r="AY10" s="3" t="inlineStr"/>
+      <c r="AZ10" s="3" t="inlineStr"/>
+      <c r="BA10" s="3" t="inlineStr"/>
+      <c r="BB10" s="3" t="inlineStr"/>
+      <c r="BC10" s="3" t="inlineStr"/>
+      <c r="BD10" s="3" t="inlineStr"/>
+      <c r="BE10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>5.4.1.73</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>2) Eficacia/Proceso
 Medidas de equidad de Género (PMG)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">5.- Proceso de Apoyo                                                5.4.- Planificación y Control de Gestión                  
 5.4.1.- Control de Gestión Institucional                                   </t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>(Número de medidas para la igualdad de género implementadas en el año t / Número total de medidas para la igualdad de género establecidas en el programa de marco del año t)*100</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>División Planificación y Desarrollo</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>Yuri Alberto Grlica Fernandez</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>Pamela Carrasco Geve</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t>Monica Smith Guerrero</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="J11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="inlineStr">
         <is>
           <t>Número de medidas para la igualdad de género implementadas en el año t</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="4" t="inlineStr">
         <is>
           <t>Número total de medidas para la igualdad de género establecidas en el programa de marco del año t)*100</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC11" t="inlineStr">
+      <c r="O11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="4" t="inlineStr">
         <is>
           <t>Reportes/Informes 
 -	Programa de Trabajo Año t aprobado por el jefe Superior del Servicio a más tardar el diciembre del año t-1.
 -	Informe de Cumplimiento del Plan de Trabajo año t aprobado por el jefe Superior del Servicio.</t>
         </is>
       </c>
-      <c r="BD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE11" t="inlineStr">
+      <c r="BD11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="4" t="inlineStr">
         <is>
           <t>PMG 2022 obj 1
 CDC: Div. Planificación y Desarrollo</t>
@@ -5117,25 +5319,81 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>--- Riesgos ---</t>
         </is>
       </c>
+      <c r="B12" s="3" t="inlineStr"/>
+      <c r="C12" s="3" t="inlineStr"/>
+      <c r="D12" s="3" t="inlineStr"/>
+      <c r="E12" s="3" t="inlineStr"/>
+      <c r="F12" s="3" t="inlineStr"/>
+      <c r="G12" s="3" t="inlineStr"/>
+      <c r="H12" s="3" t="inlineStr"/>
+      <c r="I12" s="3" t="inlineStr"/>
+      <c r="J12" s="3" t="inlineStr"/>
+      <c r="K12" s="3" t="inlineStr"/>
+      <c r="L12" s="3" t="inlineStr"/>
+      <c r="M12" s="3" t="inlineStr"/>
+      <c r="N12" s="3" t="inlineStr"/>
+      <c r="O12" s="3" t="inlineStr"/>
+      <c r="P12" s="3" t="inlineStr"/>
+      <c r="Q12" s="3" t="inlineStr"/>
+      <c r="R12" s="3" t="inlineStr"/>
+      <c r="S12" s="3" t="inlineStr"/>
+      <c r="T12" s="3" t="inlineStr"/>
+      <c r="U12" s="3" t="inlineStr"/>
+      <c r="V12" s="3" t="inlineStr"/>
+      <c r="W12" s="3" t="inlineStr"/>
+      <c r="X12" s="3" t="inlineStr"/>
+      <c r="Y12" s="3" t="inlineStr"/>
+      <c r="Z12" s="3" t="inlineStr"/>
+      <c r="AA12" s="3" t="inlineStr"/>
+      <c r="AB12" s="3" t="inlineStr"/>
+      <c r="AC12" s="3" t="inlineStr"/>
+      <c r="AD12" s="3" t="inlineStr"/>
+      <c r="AE12" s="3" t="inlineStr"/>
+      <c r="AF12" s="3" t="inlineStr"/>
+      <c r="AG12" s="3" t="inlineStr"/>
+      <c r="AH12" s="3" t="inlineStr"/>
+      <c r="AI12" s="3" t="inlineStr"/>
+      <c r="AJ12" s="3" t="inlineStr"/>
+      <c r="AK12" s="3" t="inlineStr"/>
+      <c r="AL12" s="3" t="inlineStr"/>
+      <c r="AM12" s="3" t="inlineStr"/>
+      <c r="AN12" s="3" t="inlineStr"/>
+      <c r="AO12" s="3" t="inlineStr"/>
+      <c r="AP12" s="3" t="inlineStr"/>
+      <c r="AQ12" s="3" t="inlineStr"/>
+      <c r="AR12" s="3" t="inlineStr"/>
+      <c r="AS12" s="3" t="inlineStr"/>
+      <c r="AT12" s="3" t="inlineStr"/>
+      <c r="AU12" s="3" t="inlineStr"/>
+      <c r="AV12" s="3" t="inlineStr"/>
+      <c r="AW12" s="3" t="inlineStr"/>
+      <c r="AX12" s="3" t="inlineStr"/>
+      <c r="AY12" s="3" t="inlineStr"/>
+      <c r="AZ12" s="3" t="inlineStr"/>
+      <c r="BA12" s="3" t="inlineStr"/>
+      <c r="BB12" s="3" t="inlineStr"/>
+      <c r="BC12" s="3" t="inlineStr"/>
+      <c r="BD12" s="3" t="inlineStr"/>
+      <c r="BE12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>5.4.1.83</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>Eficacia/Proceso
 Porcentaje de Reportes Trimestrales de riesgos enviados oportunamente al Depto. Gestión Integral de Riesgos en el año t (División Beneficios)</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">5.-Proceso de Apoyo
 5.4.-Planificación y Control de Gestión 
@@ -5143,202 +5401,202 @@
 </t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>(Número de Reportes Trimestrales de riesgos enviados oportunamente al Depto. Gestión Integral de Riesgos en el año t / Número de Reportes Trimestrales de riesgos planificados enviados al Depto. Gestión Integral de Riesgos en el año t) *100</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>División Planificación y Desarrollo</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>Yuri Alberto Grlica Fernandez</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>Margarita Luna Ibarra</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>Armando Calfin Trango</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="J13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
         <is>
           <t>(Número de Reportes Trimestrales de riesgos enviados oportunamente al Depto. Gestión Integral de Riesgos en el año t</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="4" t="inlineStr">
         <is>
           <t>Número de Reportes Trimestrales de riesgos planificados enviados al Depto. Gestión Integral de Riesgos en el año t) *100</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="M13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>4</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="Q13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="U13" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="W13" t="n">
-        <v>4</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="W13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="X13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AF13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM13" t="n">
+      <c r="AF13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM13" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AO13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY13" t="n">
+      <c r="AO13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY13" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="AZ13" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB13" t="n">
+      <c r="AZ13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB13" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="BC13" t="inlineStr">
+      <c r="BC13" s="4" t="inlineStr">
         <is>
           <t>Reportes/Informes
 -	Correo electrónico dirigido al Depto. de Gestión Integral de Riesgos en que envía el reporte trimestral comprometido.
 -	Reporte trimestral de riesgos.</t>
         </is>
       </c>
-      <c r="BD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE13" t="inlineStr">
+      <c r="BD13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="4" t="inlineStr">
         <is>
           <t>CDC: Div. Beneficio</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>5.4.1.76</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Eficacia/Proceso
 Porcentaje de Reportes Trimestrales de riesgos enviados oportunamente al Depto. Gestión Integral de Riesgos en el año t (División Informática)</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">5.-Proceso de Apoyo
 5.4.-Planificación y Control de Gestión 
@@ -5346,202 +5604,202 @@
 </t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>(Número de Reportes Trimestrales de riesgos enviados oportunamente al Depto. Gestión Integral de Riesgos en el año t / Número de Reportes Trimestrales de riesgos planificados enviados al Depto. Gestión Integral de Riesgos en el año t) *100</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>División Planificación y Desarrollo</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>Yuri Alberto Grlica Fernandez</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" s="4" t="inlineStr">
         <is>
           <t>Olga Veronica Quiroz Miranda</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t>Armando Calfin Trango</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="J14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="inlineStr">
         <is>
           <t>(Número de Reportes Trimestrales de riesgos enviados oportunamente al Depto. Gestión Integral de Riesgos en el año t</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="4" t="inlineStr">
         <is>
           <t>Número de Reportes Trimestrales de riesgos planificados enviados al Depto. Gestión Integral de Riesgos en el año t) *100</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="M14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O14" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>4</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="Q14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="U14" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="W14" t="n">
-        <v>4</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="W14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="X14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AF14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM14" t="n">
+      <c r="AF14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM14" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AO14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY14" t="n">
+      <c r="AO14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY14" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="AZ14" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB14" t="n">
+      <c r="AZ14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB14" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="BC14" t="inlineStr">
+      <c r="BC14" s="4" t="inlineStr">
         <is>
           <t>Reportes/Informes
 -	Correo electrónico dirigido al Depto. de Gestión Integral de Riesgos en que envía el reporte trimestral comprometido.
 -	Reporte trimestral de riesgos.</t>
         </is>
       </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="inlineStr">
+      <c r="BD14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="4" t="inlineStr">
         <is>
           <t>CDC: Div Informática.</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>5.4.1.78</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>Eficacia/Proceso
 Porcentaje de Reportes Trimestrales de riesgos enviados oportunamente al Depto. Gestión Integral de Riesgos en el año t (Subdirección de Sistemas de Información y de Administración)</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">5.-Proceso de Apoyo
 5.4.-Planificación y Control de Gestión 
@@ -5549,202 +5807,202 @@
 </t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>(Número de Reportes Trimestrales de riesgos enviados oportunamente al Depto. Gestión Integral de Riesgos en el año t / Número de Reportes Trimestrales de riesgos planificados enviados al Depto. Gestión Integral de Riesgos en el año t) *100</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>División Planificación y Desarrollo</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>Yuri Alberto Grlica Fernandez</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t>Paulo Rodríguez Pino</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>Armando Calfin Trango</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="J15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4" t="inlineStr">
         <is>
           <t>(Número de Reportes Trimestrales de riesgos enviados oportunamente al Depto. Gestión Integral de Riesgos en el año t</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="4" t="inlineStr">
         <is>
           <t>Número de Reportes Trimestrales de riesgos planificados enviados al Depto. Gestión Integral de Riesgos en el año t) *100</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="M15" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O15" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>4</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="Q15" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="U15" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="W15" t="n">
-        <v>4</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="W15" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="X15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AF15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM15" t="n">
+      <c r="AF15" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM15" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AO15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY15" t="n">
+      <c r="AO15" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY15" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="AZ15" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB15" t="n">
+      <c r="AZ15" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA15" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB15" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="BC15" t="inlineStr">
+      <c r="BC15" s="4" t="inlineStr">
         <is>
           <t>Reportes/Informes
 -	Correo electrónico dirigido al Depto. de Gestión Integral de Riesgos en que envía el reporte trimestral comprometido.
 -	Reporte trimestral de riesgos.</t>
         </is>
       </c>
-      <c r="BD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE15" t="inlineStr">
+      <c r="BD15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="4" t="inlineStr">
         <is>
           <t>CDC: Subdir Sistema de Información y Administración</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>5.4.1.77</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>Eficacia/Proceso
 Porcentaje de Reportes Trimestrales de riesgos enviados oportunamente al Depto. Gestión Integral de Riesgos en el año t (Subdirección de Servicios al Cliente)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">5.-Proceso de Apoyo
 5.4.-Planificación y Control de Gestión 
@@ -5752,184 +6010,184 @@
 </t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>(Número de Reportes Trimestrales de riesgos enviados oportunamente al Depto. Gestión Integral de Riesgos en el año t / Número de Reportes Trimestrales de riesgos planificados enviados al Depto. Gestión Integral de Riesgos en el año t) *100</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>División Planificación y Desarrollo</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>Yuri Alberto Grlica Fernandez</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" s="4" t="inlineStr">
         <is>
           <t>Olga Veronica Quiroz Miranda</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" s="4" t="inlineStr">
         <is>
           <t>Armando Calfin Trango</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr">
+      <c r="J16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4" t="inlineStr">
         <is>
           <t>(Número de Reportes Trimestrales de riesgos enviados oportunamente al Depto. Gestión Integral de Riesgos en el año t</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" s="4" t="inlineStr">
         <is>
           <t>Número de Reportes Trimestrales de riesgos planificados enviados al Depto. Gestión Integral de Riesgos en el año t) *100</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="M16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>4</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="Q16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="U16" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="W16" t="n">
-        <v>4</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD16" t="n">
+      <c r="W16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="X16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD16" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AF16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM16" t="n">
+      <c r="AF16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM16" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AO16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY16" t="n">
+      <c r="AO16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY16" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="AZ16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB16" t="n">
+      <c r="AZ16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB16" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="BC16" t="inlineStr">
+      <c r="BC16" s="4" t="inlineStr">
         <is>
           <t>Reportes/Informes
 -	Correo electrónico dirigido al Depto. de Gestión Integral de Riesgos en que envía el reporte trimestral comprometido.
 -	Reporte trimestral de riesgos.</t>
         </is>
       </c>
-      <c r="BD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE16" t="inlineStr">
+      <c r="BD16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="4" t="inlineStr">
         <is>
           <t>CDC: Subdirección Clientes</t>
         </is>
